--- a/doc/memoria.xlsx
+++ b/doc/memoria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6289c937e7e0e52b/Escritorio/CPP_Tardes/repositorio/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A2A88D-758A-42BD-878E-81E450182FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{47A2A88D-758A-42BD-878E-81E450182FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660B112B-D7F7-40FD-889A-A23F73963540}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A2573D74-8A93-415A-A4B1-20DA9380A61A}"/>
+    <workbookView xWindow="11805" yWindow="915" windowWidth="16620" windowHeight="13515" xr2:uid="{A2573D74-8A93-415A-A4B1-20DA9380A61A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -216,34 +222,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,54 +720,54 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
@@ -766,55 +778,55 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
